--- a/dongxw-service/src/main/resources/templates/workplan_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/workplan_template.xlsx
@@ -1,6 +1,1004 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="23295" windowHeight="13140"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>深圳东兴富科技有限公司</t>
+  </si>
+  <si>
+    <t>生产计划表</t>
+  </si>
+  <si>
+    <t>日期：</t>
+  </si>
+  <si>
+    <t>{{info.makeDate}}</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>款号</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>接单日期</t>
+  </si>
+  <si>
+    <t>要求交期</t>
+  </si>
+  <si>
+    <t>物料到位日期</t>
+  </si>
+  <si>
+    <t>包材到位日期</t>
+  </si>
+  <si>
+    <t>计划上线</t>
+  </si>
+  <si>
+    <t>计划完成</t>
+  </si>
+  <si>
+    <t>实际完成</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>{{$fe: info.list t.customerName</t>
+  </si>
+  <si>
+    <t>t.orderCode</t>
+  </si>
+  <si>
+    <t>t.epCode</t>
+  </si>
+  <si>
+    <t>t.qty</t>
+  </si>
+  <si>
+    <t>t.color</t>
+  </si>
+  <si>
+    <t>t.orderDate</t>
+  </si>
+  <si>
+    <t>t.issueDate</t>
+  </si>
+  <si>
+    <t>t.rmDate</t>
+  </si>
+  <si>
+    <t>t.pkgDate</t>
+  </si>
+  <si>
+    <t>t.planStart</t>
+  </si>
+  <si>
+    <t>t.planFinish</t>
+  </si>
+  <si>
+    <t>t.realFinish</t>
+  </si>
+  <si>
+    <t>t.memo}}</t>
+  </si>
+  <si>
+    <t>制表：</t>
+  </si>
+  <si>
+    <t>{{info.makeBy}}</t>
+  </si>
+  <si>
+    <t>审核：</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="15">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="图片 347" descr="C:\Users\lisa\AppData\Local\Temp\LZI03T~FIOX4A`QE5_@UTP0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="14445" r="9781"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="1270"/>
+          <a:ext cx="342900" cy="172085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -254,6 +1252,218 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" ht="25.5" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" ht="15" spans="1:13">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="27.75" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/dongxw-service/src/main/resources/templates/workplan_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/workplan_template.xlsx
@@ -121,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
@@ -174,6 +174,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -183,14 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,45 +198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -258,7 +219,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,14 +251,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,17 +280,23 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -311,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +602,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -617,40 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,17 +667,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,145 +692,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>

--- a/dongxw-service/src/main/resources/templates/workplan_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/workplan_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>深圳东兴富科技有限公司</t>
   </si>
@@ -65,6 +65,9 @@
     <t>实际完成</t>
   </si>
   <si>
+    <t>外发与否</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
   </si>
   <si>
     <t>t.realFinish</t>
+  </si>
+  <si>
+    <t>t.outFlag</t>
   </si>
   <si>
     <t>t.memo}}</t>
@@ -122,8 +128,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -181,6 +187,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -189,90 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -280,23 +301,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -311,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,50 +580,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,17 +599,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,8 +650,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +710,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1272,7 +1278,7 @@
     <col min="9" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1309,7 +1315,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="15" spans="1:13">
+    <row r="3" ht="15" spans="1:14">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1327,8 +1333,9 @@
       <c r="M3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="N3" s="13"/>
     </row>
-    <row r="4" ht="27.75" spans="1:13">
+    <row r="4" ht="27.75" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1368,8 +1375,11 @@
       <c r="M4" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="N4" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1383,66 +1393,71 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11"/>
       <c r="K8" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:M2"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="K8:M8"/>
   </mergeCells>

--- a/dongxw-service/src/main/resources/templates/workplan_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/workplan_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13140"/>
+    <workbookView windowWidth="20660" windowHeight="11330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -127,13 +127,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -172,6 +172,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -180,6 +185,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -187,16 +231,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -204,52 +247,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -263,6 +260,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -272,15 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,15 +291,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -317,67 +322,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,115 +490,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,15 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -619,6 +615,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,8 +646,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,23 +655,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +680,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -698,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,133 +715,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -868,10 +873,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -880,7 +885,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,10 +1269,10 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A6" sqref="A6:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
@@ -1315,7 +1320,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="15" spans="1:14">
+    <row r="3" ht="15.75" spans="1:14">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1335,7 +1340,7 @@
       </c>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" ht="27.75" spans="1:14">
+    <row r="4" ht="28.75" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1481,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
